--- a/doc/diccionario.xlsx
+++ b/doc/diccionario.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
   <si>
     <t xml:space="preserve">PLANTILLA DE DICCIONARIO DE DATOS</t>
   </si>
@@ -167,6 +167,12 @@
     <t xml:space="preserve">integer</t>
   </si>
   <si>
+    <t xml:space="preserve">MAX_VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
@@ -192,6 +198,12 @@
   </si>
   <si>
     <t xml:space="preserve">Alfanumérico y caracteres especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentracion del producto</t>
   </si>
   <si>
     <t xml:space="preserve">Brand</t>
@@ -234,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -304,14 +316,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
@@ -423,7 +427,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -496,15 +500,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,26 +517,14 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <colors>
@@ -552,7 +540,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF9C6500"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -576,7 +564,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF73B4E9"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -613,9 +601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>885600</xdr:colOff>
+      <xdr:colOff>885240</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>537480</xdr:rowOff>
+      <xdr:rowOff>537120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -628,8 +616,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3152880" y="676080"/>
-          <a:ext cx="475920" cy="404280"/>
+          <a:off x="3181320" y="676080"/>
+          <a:ext cx="475560" cy="403920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -655,9 +643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1152000</xdr:colOff>
+      <xdr:colOff>1151640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>430920</xdr:rowOff>
+      <xdr:rowOff>430560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -670,8 +658,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2676240" y="647640"/>
-          <a:ext cx="313920" cy="326160"/>
+          <a:off x="2685600" y="647640"/>
+          <a:ext cx="313560" cy="325800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -699,7 +687,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>302400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>411120</xdr:rowOff>
+      <xdr:rowOff>410760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -712,8 +700,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6311160" y="654840"/>
-          <a:ext cx="963360" cy="299160"/>
+          <a:off x="6339600" y="654840"/>
+          <a:ext cx="982440" cy="298800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,9 +731,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.4210526315789"/>
     <col collapsed="false" hidden="false" max="9" min="4" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.6032388663968"/>
@@ -866,11 +854,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -988,6 +976,13 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
@@ -1020,29 +1015,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="16.9230769230769"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="8" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="8" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1159,7 +1154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -1175,15 +1170,23 @@
       <c r="E6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="H6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="K6" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,105 +1194,137 @@
         <v>26</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+        <v>47</v>
+      </c>
+      <c r="F7" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="K7" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="19" t="s">
-        <v>49</v>
+      <c r="F8" s="16" t="n">
+        <v>255</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,53 +1335,102 @@
       <c r="C11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="K11" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11"/>
       <c r="B12" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="20" t="s">
-        <v>49</v>
+      <c r="G12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="16" t="n">
+        <v>255</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A5:A13"/>
   </mergeCells>
   <conditionalFormatting sqref="D1">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -1354,7 +1438,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
